--- a/论文/盲审及答辩/4月20日提交报告、会议资料/学术讲座（或报告）情况记载单 - 副本.xlsx
+++ b/论文/盲审及答辩/4月20日提交报告、会议资料/学术讲座（或报告）情况记载单 - 副本.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9630"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>研究生参加学术讲座（或报告）情况记载单</t>
   </si>
@@ -197,15 +197,360 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主要内容与总结</t>
+    <t>硬件的互联网革命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日华中科技大学西十二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N111</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容与总结
+    互联网连通世界，从最初的连通PC，到连通手机，直到现在的智能硬件。互联网改变着我们的生活，也影响着硬件的发展。硬件，再也不满足于原来的孤立状态，开始走向互联之路。讲座介绍了未来硬件向“智能硬件+软件+云端”的智能化方向发展的趋势以及已经取得的成果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海绵型城市建设中的若干关键问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容与总结
+    介绍了建设自然积存、自然渗透、自然净化的“海绵城市”：城市能够像海绵一样，在适应环境变化和应对自然灾害等方面具有良好的“弹性”，下雨时吸水、蓄水、渗水、净水，需要时将蓄存的水“释放”并加以利用。利用城市绿地、水系等自然空间，优先通过绿色雨水基础设施，并结合灰色雨水基础设施，统筹应用“滞、蓄、渗、净、用、排”等手段，实现多重径流雨水控制目标，恢复城市良性水文循环。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日华中科技大学南二楼二楼报告厅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习与人工智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日华中科技大学八号楼学术报告厅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容与总结
+    人工智能可以分为强人工智能与弱人工智能，现在的科研主要集中在弱人工智能上。强人工智能主要研究真正能推理和解决问题的、有知觉和自我意识的智能机器。而弱人工智能则认为所谓真正的智能机器是不可能被制造出来的，其研究目的只是为了“让机器看起来聪明一点”。机器学习作为人工智能的分支之一，已经超过了人工智能的发展程度，并且在生活中的各个领域得到了应用。在大数据时代，数据即信息，我们需要收集、传输、存储数据，从而利用数据。通过分析数据，为我们的生活创造便利。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">云存储应用与技术挑战
+                                    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年4月2日西十二N102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容与总结
+    云存储正逐步被人们所接受，越来越多的云充斥了我们的工作和生活。云存储是通过软件将大量不同类型的存储设备集合起来,共同对外提供数据存储服务。云存储服务在数据安全性、可靠性、易管理性等方面向传统存储技术提出新的挑战。讲座从云存储系统结构、资源调度、数据组织、安全保障等角度出发，窥探云存储的究竟，介绍了云存储架构的构成，并介绍了云存储的关键技术，如存储虚拟化技术，分布式存储技术。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变化中的流域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二元水循环</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日华中科技大学水电学院仿真中心三楼</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容与总结
+在全球气候变化和高强度人类活动干扰下，水资源短缺、水环境恶化及生态退化成为海河流域水资源管理中面临的紧迫问题。由于三大问题间的关系错综复杂，只有将水循环及伴生的水环境、生态问题结合起来开展研究，才能有助于问题的根本解决。为全面诊断和解决这些问题。以4个“二元化”为核心的流域“自然-人工”二元水循环理论框架的提出，可以辩证地认识人类经济社会系统发展和生态环境系统持续发展的相互关系，为协调人类社会用水和生态环境系统用水提供科学依据，为水资源的合理开发利用提供理论基础。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M201373325</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡弦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,48 +827,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,38 +905,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +953,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -658,7 +1027,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -693,7 +1061,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,14 +1236,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -886,18 +1253,18 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="27">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -908,421 +1275,443 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+    <row r="7" spans="1:10" ht="150" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="150" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="150" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="150" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="13.5" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" customHeight="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" customHeight="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" customHeight="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75">
       <c r="A39" s="17"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75">
+      <c r="A40" s="18"/>
+      <c r="B40" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B20:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="A20:A40"/>
@@ -1339,28 +1728,30 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B20:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.82" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1368,12 +1759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/论文/盲审及答辩/4月20日提交报告、会议资料/学术讲座（或报告）情况记载单 - 副本.xlsx
+++ b/论文/盲审及答辩/4月20日提交报告、会议资料/学术讲座（或报告）情况记载单 - 副本.xlsx
@@ -279,7 +279,7 @@
   </si>
   <si>
     <r>
-      <t>2014</t>
+      <t>2016</t>
     </r>
     <r>
       <rPr>
@@ -298,7 +298,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>10</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -317,37 +317,49 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日华中科技大学南二楼二楼报告厅</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器学习与人工智能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日华中科技大学八号楼学术报告厅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容与总结
+    人工智能可以分为强人工智能与弱人工智能，现在的科研主要集中在弱人工智能上。强人工智能主要研究真正能推理和解决问题的、有知觉和自我意识的智能机器。而弱人工智能则认为所谓真正的智能机器是不可能被制造出来的，其研究目的只是为了“让机器看起来聪明一点”。机器学习作为人工智能的分支之一，已经超过了人工智能的发展程度，并且在生活中的各个领域得到了应用。在大数据时代，数据即信息，我们需要收集、传输、存储数据，从而利用数据。通过分析数据，为我们的生活创造便利。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">云存储应用与技术挑战
+                                    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年4月2日西十二N102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容与总结
+    云存储正逐步被人们所接受，越来越多的云充斥了我们的工作和生活。云存储是通过软件将大量不同类型的存储设备集合起来,共同对外提供数据存储服务。云存储服务在数据安全性、可靠性、易管理性等方面向传统存储技术提出新的挑战。讲座从云存储系统结构、资源调度、数据组织、安全保障等角度出发，窥探云存储的究竟，介绍了云存储架构的构成，并介绍了云存储的关键技术，如存储虚拟化技术，分布式存储技术。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变化中的流域</t>
     </r>
     <r>
       <rPr>
@@ -356,17 +368,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自然</t>
     </r>
     <r>
       <rPr>
@@ -375,49 +387,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日华中科技大学八号楼学术报告厅</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要内容与总结
-    人工智能可以分为强人工智能与弱人工智能，现在的科研主要集中在弱人工智能上。强人工智能主要研究真正能推理和解决问题的、有知觉和自我意识的智能机器。而弱人工智能则认为所谓真正的智能机器是不可能被制造出来的，其研究目的只是为了“让机器看起来聪明一点”。机器学习作为人工智能的分支之一，已经超过了人工智能的发展程度，并且在生活中的各个领域得到了应用。在大数据时代，数据即信息，我们需要收集、传输、存储数据，从而利用数据。通过分析数据，为我们的生活创造便利。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">云存储应用与技术挑战
-                                    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年4月2日西十二N102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要内容与总结
-    云存储正逐步被人们所接受，越来越多的云充斥了我们的工作和生活。云存储是通过软件将大量不同类型的存储设备集合起来,共同对外提供数据存储服务。云存储服务在数据安全性、可靠性、易管理性等方面向传统存储技术提出新的挑战。讲座从云存储系统结构、资源调度、数据组织、安全保障等角度出发，窥探云存储的究竟，介绍了云存储架构的构成，并介绍了云存储的关键技术，如存储虚拟化技术，分布式存储技术。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变化中的流域</t>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社会</t>
     </r>
     <r>
       <rPr>
@@ -426,17 +406,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自然</t>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二元水循环</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
     </r>
     <r>
       <rPr>
@@ -445,17 +441,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>社会</t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -464,23 +460,40 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二元水循环</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2016</t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日华中科技大学水电学院仿真中心三楼</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容与总结
+在全球气候变化和高强度人类活动干扰下，水资源短缺、水环境恶化及生态退化成为海河流域水资源管理中面临的紧迫问题。由于三大问题间的关系错综复杂，只有将水循环及伴生的水环境、生态问题结合起来开展研究，才能有助于问题的根本解决。为全面诊断和解决这些问题。以4个“二元化”为核心的流域“自然-人工”二元水循环理论框架的提出，可以辩证地认识人类经济社会系统发展和生态环境系统持续发展的相互关系，为协调人类社会用水和生态环境系统用水提供科学依据，为水资源的合理开发利用提供理论基础。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M201373325</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡弦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习与人工智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2014</t>
     </r>
     <r>
       <rPr>
@@ -499,7 +512,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -518,31 +531,18 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日华中科技大学水电学院仿真中心三楼</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要内容与总结
-在全球气候变化和高强度人类活动干扰下，水资源短缺、水环境恶化及生态退化成为海河流域水资源管理中面临的紧迫问题。由于三大问题间的关系错综复杂，只有将水循环及伴生的水环境、生态问题结合起来开展研究，才能有助于问题的根本解决。为全面诊断和解决这些问题。以4个“二元化”为核心的流域“自然-人工”二元水循环理论框架的提出，可以辩证地认识人类经济社会系统发展和生态环境系统持续发展的相互关系，为协调人类社会用水和生态环境系统用水提供科学依据，为水资源的合理开发利用提供理论基础。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M201373325</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡弦</t>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日华中科技大学南二楼二楼报告厅</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -827,34 +827,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,6 +878,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,14 +896,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -887,39 +905,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -932,10 +917,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1254,456 +1254,479 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="27">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="F4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="27"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="32" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="150" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="34" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="150" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="150" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="150" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="37" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="150" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" ht="150" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="150" customHeight="1">
-      <c r="A19" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="18.75">
-      <c r="A39" s="17"/>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="18.75">
-      <c r="A40" s="18"/>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="B20:G38"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B40:G40"/>
@@ -1715,29 +1738,6 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="A20:A40"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.82" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
